--- a/biology/Origine et évolution du vivant/Darwin_et_les_grandes_énigmes_de_la_vie/Darwin_et_les_grandes_énigmes_de_la_vie.xlsx
+++ b/biology/Origine et évolution du vivant/Darwin_et_les_grandes_énigmes_de_la_vie/Darwin_et_les_grandes_énigmes_de_la_vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Darwin_et_les_grandes_%C3%A9nigmes_de_la_vie</t>
+          <t>Darwin_et_les_grandes_énigmes_de_la_vie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Darwin et les grandes énigmes de la vie (Ever Since Darwin, en anglais) est un livre de vulgarisation scientifique de Stephen Jay Gould. Il s'agit du premier tome de la compilation des essais parus dans la chronique This view of life du mensuel Natural History. L'édition originale en anglais a été publiée par W. W. Norton &amp; Company en 1977 à New York. La version en langue française est éditée par Le Seuil en février 1997.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Darwin_et_les_grandes_%C3%A9nigmes_de_la_vie</t>
+          <t>Darwin_et_les_grandes_énigmes_de_la_vie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le livre se décompose en 8 parties comprenant au total 33 essais :
 Prologue
@@ -573,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Darwin_et_les_grandes_%C3%A9nigmes_de_la_vie</t>
+          <t>Darwin_et_les_grandes_énigmes_de_la_vie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -591,7 +605,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Ever Since Darwin » (voir la liste des auteurs).</t>
         </is>
